--- a/StructureDefinition-NgImmPatient.xlsx
+++ b/StructureDefinition-NgImmPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T12:11:34+01:00</t>
+    <t>2025-06-23T13:45:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-NgImmPatient.xlsx
+++ b/StructureDefinition-NgImmPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T09:13:37+01:00</t>
+    <t>2025-06-25T06:29:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1065,7 +1065,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-gender</t>
+    <t>http://hl7.org/fhir/R4/valueset-administrative-gender</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>

--- a/StructureDefinition-NgImmPatient.xlsx
+++ b/StructureDefinition-NgImmPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T06:29:04+01:00</t>
+    <t>2025-06-30T08:07:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-NgImmPatient.xlsx
+++ b/StructureDefinition-NgImmPatient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$117</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4291" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4367" uniqueCount="695">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-30T08:07:26+01:00</t>
+    <t>2025-07-03T11:54:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -803,7 +803,7 @@
 </t>
   </si>
   <si>
-    <t>Whether this patient's record is in active use</t>
+    <t>Indicates Whether this patient's record is in active use or not (eg. for Immunization, this flag can be set to true between 0-24 months, and false there after, to optimize searches)</t>
   </si>
   <si>
     <t>Whether this patient record is in active use. 
@@ -1065,7 +1065,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/R4/valueset-administrative-gender</t>
+    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-gender</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
@@ -1115,7 +1115,7 @@
 dateTime</t>
   </si>
   <si>
-    <t>Indicates if the individual is deceased or not</t>
+    <t>Indicates if an individual client is alive or dead</t>
   </si>
   <si>
     <t>Indicates if the individual is deceased or not.</t>
@@ -1127,10 +1127,39 @@
     <t>The fact that a patient is deceased influences the clinical process. Also, in human communication and relation management it is necessary to know whether the person is alive.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedInd, player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedTime</t>
   </si>
   <si>
     <t>PID-30  (bool) and PID-29 (datetime)</t>
+  </si>
+  <si>
+    <t>Patient.deceased[x]:deceasedBoolean</t>
+  </si>
+  <si>
+    <t>deceasedBoolean</t>
+  </si>
+  <si>
+    <t>Indicates if the individual is deceased (dead) or not</t>
+  </si>
+  <si>
+    <t>Patient.deceased[x]:deceasedDateTime</t>
+  </si>
+  <si>
+    <t>deceasedDateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Indicates when the individual passed away if dead.</t>
   </si>
   <si>
     <t>Patient.address</t>
@@ -1289,7 +1318,7 @@
 </t>
   </si>
   <si>
-    <t>The city used where the client lives in the state</t>
+    <t>The city, town or settlement where the client lives in the state</t>
   </si>
   <si>
     <t>The name of the city, town, suburb, village or other community or delivery center.</t>
@@ -1666,13 +1695,13 @@
     <t>Patient.contact.name.family</t>
   </si>
   <si>
-    <t>The surname (family) name of the Client's primary Caregiver, can be a parent or Guardian</t>
+    <t>The surname (family) name of the Client's primary Caregiver, can be a Parent or Guardian</t>
   </si>
   <si>
     <t>Patient.contact.name.given</t>
   </si>
   <si>
-    <t>The first name of the Client's primary Caregiver, can be a parent or Guardian</t>
+    <t>The first name of the Client's primary Caregiver, can be a Parent or Guardian</t>
   </si>
   <si>
     <t>Patient.contact.name.prefix</t>
@@ -1857,7 +1886,7 @@
     <t>Patient.contact.address.city</t>
   </si>
   <si>
-    <t>The city where the Client's primary Caregiver or Guardian lives</t>
+    <t>The city, town or settlement where the Client's primary Caregiver or Guardian lives</t>
   </si>
   <si>
     <t>Patient.contact.address.district</t>
@@ -1986,7 +2015,7 @@
     <t>Patient.communication.language</t>
   </si>
   <si>
-    <t>The language which can be used to communicate with the patient about his or her health</t>
+    <t>A language which can be used to communicate with the patient about his or her health</t>
   </si>
   <si>
     <t>The ISO-639-1 alpha 2 code in lower case for the language, optionally followed by a hyphen and the ISO-3166-1 alpha 2 code for the region in upper case; e.g. "en" for English, or "en-US" for American English versus "en-EN" for England English.</t>
@@ -1996,6 +2025,9 @@
   </si>
   <si>
     <t>Most systems in multilingual countries will want to convey language. Not all systems actually need the regional dialect.</t>
+  </si>
+  <si>
+    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-languages</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/languageCommunication/code</t>
@@ -2465,7 +2497,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO115"/>
+  <dimension ref="A1:AO117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5457,7 +5489,7 @@
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>82</v>
@@ -7164,16 +7196,14 @@
         <v>82</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>82</v>
+        <v>358</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>351</v>
@@ -7191,7 +7221,7 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>189</v>
@@ -7200,7 +7230,7 @@
         <v>82</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -7208,12 +7238,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>82</v>
       </c>
@@ -7222,31 +7254,31 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>360</v>
+        <v>251</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7295,13 +7327,13 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
@@ -7310,16 +7342,16 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>366</v>
+        <v>189</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7327,12 +7359,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>82</v>
       </c>
@@ -7347,22 +7381,26 @@
         <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>186</v>
+        <v>367</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
       </c>
@@ -7410,7 +7448,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>188</v>
+        <v>351</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7422,19 +7460,19 @@
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AL42" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>82</v>
+        <v>360</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7442,14 +7480,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7465,21 +7503,23 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>135</v>
+        <v>369</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>192</v>
+        <v>370</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>193</v>
+        <v>371</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
       </c>
@@ -7515,19 +7555,19 @@
         <v>82</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>196</v>
+        <v>368</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7539,19 +7579,19 @@
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>189</v>
+        <v>374</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7559,14 +7599,12 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7578,7 +7616,7 @@
         <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>82</v>
@@ -7587,13 +7625,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>372</v>
+        <v>185</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>373</v>
+        <v>186</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>374</v>
+        <v>187</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7644,22 +7682,22 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>82</v>
@@ -7676,46 +7714,44 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>376</v>
+        <v>192</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>377</v>
+        <v>193</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7727,7 +7763,7 @@
         <v>82</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>380</v>
+        <v>82</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>82</v>
@@ -7739,46 +7775,46 @@
         <v>82</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>382</v>
+        <v>82</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>383</v>
+        <v>196</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>278</v>
+        <v>189</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>82</v>
@@ -7787,7 +7823,7 @@
         <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7795,12 +7831,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>82</v>
       </c>
@@ -7812,26 +7850,24 @@
         <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>110</v>
+        <v>381</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7844,7 +7880,7 @@
         <v>82</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>389</v>
+        <v>82</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>82</v>
@@ -7856,13 +7892,13 @@
         <v>82</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>391</v>
+        <v>82</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>82</v>
@@ -7880,22 +7916,22 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>392</v>
+        <v>196</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>278</v>
+        <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>82</v>
@@ -7904,7 +7940,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>393</v>
+        <v>82</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7912,10 +7948,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7926,31 +7962,31 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>284</v>
+        <v>388</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7963,7 +7999,7 @@
         <v>82</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>82</v>
@@ -7975,13 +8011,13 @@
         <v>82</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>82</v>
+        <v>390</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>82</v>
+        <v>391</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>82</v>
@@ -7999,7 +8035,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8014,7 +8050,7 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>82</v>
@@ -8023,7 +8059,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8031,10 +8067,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8048,7 +8084,7 @@
         <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
@@ -8057,15 +8093,17 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -8078,7 +8116,7 @@
         <v>82</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>82</v>
@@ -8090,13 +8128,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>82</v>
+        <v>399</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -8114,13 +8152,13 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
@@ -8129,7 +8167,7 @@
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>406</v>
+        <v>278</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>82</v>
@@ -8138,7 +8176,7 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8146,14 +8184,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>409</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -8175,13 +8213,17 @@
         <v>185</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
       </c>
@@ -8193,7 +8235,7 @@
         <v>82</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>82</v>
@@ -8229,7 +8271,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8244,7 +8286,7 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>414</v>
+        <v>286</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>82</v>
@@ -8253,7 +8295,7 @@
         <v>82</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8261,14 +8303,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>417</v>
+        <v>82</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -8278,7 +8320,7 @@
         <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>82</v>
@@ -8290,14 +8332,12 @@
         <v>185</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8310,7 +8350,7 @@
         <v>82</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>82</v>
@@ -8322,11 +8362,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="Y50" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z50" t="s" s="2">
-        <v>422</v>
+        <v>82</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -8344,13 +8386,13 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
@@ -8359,7 +8401,7 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>82</v>
@@ -8368,7 +8410,7 @@
         <v>82</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8376,14 +8418,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8405,10 +8447,10 @@
         <v>185</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8423,7 +8465,7 @@
         <v>82</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>82</v>
+        <v>421</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>82</v>
@@ -8435,11 +8477,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="Y51" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z51" t="s" s="2">
-        <v>430</v>
+        <v>82</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8457,7 +8501,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8472,7 +8516,7 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>82</v>
@@ -8481,7 +8525,7 @@
         <v>82</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8489,14 +8533,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8518,12 +8562,14 @@
         <v>185</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8536,7 +8582,7 @@
         <v>82</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>82</v>
@@ -8548,13 +8594,11 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>82</v>
+        <v>431</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8572,7 +8616,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8587,7 +8631,7 @@
         <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>82</v>
@@ -8596,7 +8640,7 @@
         <v>82</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8604,14 +8648,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>82</v>
+        <v>436</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8633,14 +8677,12 @@
         <v>185</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8665,13 +8707,11 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>82</v>
+        <v>439</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8689,7 +8729,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8704,7 +8744,7 @@
         <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>82</v>
@@ -8713,7 +8753,7 @@
         <v>82</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8721,14 +8761,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>82</v>
+        <v>444</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8747,18 +8787,16 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>452</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>82</v>
       </c>
@@ -8770,7 +8808,7 @@
         <v>82</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>82</v>
@@ -8806,7 +8844,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8821,7 +8859,7 @@
         <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>321</v>
+        <v>449</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>82</v>
@@ -8830,7 +8868,7 @@
         <v>82</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8838,10 +8876,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8861,21 +8899,21 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>82</v>
       </c>
@@ -8899,13 +8937,13 @@
         <v>82</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>460</v>
+        <v>82</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>82</v>
@@ -8923,7 +8961,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8938,16 +8976,16 @@
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>463</v>
+        <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8955,10 +8993,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8978,22 +9016,20 @@
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>466</v>
+        <v>236</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -9006,7 +9042,7 @@
         <v>82</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>82</v>
+        <v>462</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>82</v>
@@ -9042,7 +9078,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9057,16 +9093,16 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>471</v>
+        <v>321</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -9074,10 +9110,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9088,7 +9124,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>82</v>
@@ -9100,19 +9136,17 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>474</v>
+        <v>208</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -9137,13 +9171,13 @@
         <v>82</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>82</v>
+        <v>469</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>82</v>
+        <v>470</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>82</v>
@@ -9161,13 +9195,13 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>82</v>
@@ -9176,16 +9210,16 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>189</v>
+        <v>472</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9193,10 +9227,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9207,7 +9241,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
@@ -9219,19 +9253,19 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9280,22 +9314,22 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>487</v>
+        <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>189</v>
@@ -9304,7 +9338,7 @@
         <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>82</v>
+        <v>481</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9312,10 +9346,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9326,7 +9360,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -9338,16 +9372,20 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>185</v>
+        <v>483</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>186</v>
+        <v>484</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9395,31 +9433,31 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>188</v>
+        <v>482</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AL59" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>82</v>
+        <v>489</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9434,7 +9472,7 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9453,18 +9491,20 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>135</v>
+        <v>491</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>192</v>
+        <v>492</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>193</v>
+        <v>493</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9512,7 +9552,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>196</v>
+        <v>490</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9524,13 +9564,13 @@
         <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>141</v>
+        <v>496</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>82</v>
@@ -9544,10 +9584,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9558,25 +9598,25 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9627,22 +9667,22 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>492</v>
+        <v>188</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>82</v>
@@ -9659,14 +9699,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9685,18 +9725,18 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>494</v>
+        <v>192</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>82</v>
       </c>
@@ -9720,13 +9760,13 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>497</v>
+        <v>82</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>498</v>
+        <v>82</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9744,7 +9784,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>493</v>
+        <v>196</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9756,19 +9796,19 @@
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>499</v>
+        <v>189</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>500</v>
+        <v>82</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9776,10 +9816,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9790,25 +9830,25 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9859,22 +9899,22 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>188</v>
+        <v>501</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>82</v>
@@ -9898,7 +9938,7 @@
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9917,18 +9957,18 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>192</v>
+        <v>503</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
@@ -9952,31 +9992,31 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>82</v>
+        <v>506</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>82</v>
+        <v>507</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>196</v>
+        <v>502</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9988,19 +10028,19 @@
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AL64" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>82</v>
+        <v>509</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10008,10 +10048,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10022,7 +10062,7 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>82</v>
@@ -10031,23 +10071,19 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>504</v>
+        <v>185</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>505</v>
+        <v>186</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>82</v>
       </c>
@@ -10095,22 +10131,22 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>509</v>
+        <v>188</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>510</v>
+        <v>189</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>82</v>
@@ -10119,7 +10155,7 @@
         <v>82</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>511</v>
+        <v>82</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10127,21 +10163,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>82</v>
@@ -10150,23 +10186,21 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>513</v>
+        <v>192</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>514</v>
+        <v>193</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>82</v>
       </c>
@@ -10190,44 +10224,46 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="Y66" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z66" t="s" s="2">
-        <v>517</v>
+        <v>82</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>518</v>
+        <v>196</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>519</v>
+        <v>189</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>82</v>
@@ -10236,7 +10272,7 @@
         <v>82</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>520</v>
+        <v>82</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10244,10 +10280,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10258,7 +10294,7 @@
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10267,20 +10303,22 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>260</v>
+        <v>513</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="O67" t="s" s="2">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10329,13 +10367,13 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>82</v>
@@ -10344,16 +10382,16 @@
         <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>265</v>
+        <v>519</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10361,10 +10399,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10384,19 +10422,23 @@
         <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>185</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>186</v>
+        <v>522</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10420,13 +10462,11 @@
         <v>82</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
-        <v>82</v>
+        <v>526</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>82</v>
@@ -10444,7 +10484,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>188</v>
+        <v>527</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10456,10 +10496,10 @@
         <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>189</v>
+        <v>528</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>82</v>
@@ -10468,7 +10508,7 @@
         <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>82</v>
+        <v>529</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10476,21 +10516,21 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -10502,18 +10542,18 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>135</v>
+        <v>260</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>192</v>
+        <v>531</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>532</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
       </c>
@@ -10549,43 +10589,43 @@
         <v>82</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>196</v>
+        <v>530</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AL69" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>82</v>
+        <v>534</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10593,10 +10633,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10607,32 +10647,28 @@
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>271</v>
+        <v>186</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
@@ -10656,13 +10692,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>275</v>
+        <v>82</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>276</v>
+        <v>82</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10680,7 +10716,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>277</v>
+        <v>188</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10692,10 +10728,10 @@
         <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>278</v>
+        <v>189</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>82</v>
@@ -10704,7 +10740,7 @@
         <v>82</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>279</v>
+        <v>82</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10712,21 +10748,21 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
@@ -10735,23 +10771,21 @@
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>281</v>
+        <v>192</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>282</v>
+        <v>193</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>82</v>
       </c>
@@ -10787,34 +10821,34 @@
         <v>82</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>285</v>
+        <v>196</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>286</v>
+        <v>189</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>82</v>
@@ -10823,7 +10857,7 @@
         <v>82</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>287</v>
+        <v>82</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10831,44 +10865,46 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I72" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>531</v>
+        <v>271</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
@@ -10892,13 +10928,13 @@
         <v>82</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>82</v>
+        <v>275</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>82</v>
+        <v>276</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
@@ -10916,7 +10952,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10931,7 +10967,7 @@
         <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>82</v>
@@ -10940,7 +10976,7 @@
         <v>82</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -10948,24 +10984,24 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>82</v>
@@ -10977,15 +11013,17 @@
         <v>185</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>533</v>
+        <v>281</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
       </c>
@@ -11033,13 +11071,13 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>82</v>
@@ -11048,7 +11086,7 @@
         <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>82</v>
@@ -11057,7 +11095,7 @@
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11065,24 +11103,24 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>82</v>
+        <v>289</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>82</v>
@@ -11094,12 +11132,14 @@
         <v>185</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>305</v>
+        <v>540</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11148,13 +11188,13 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>82</v>
@@ -11163,7 +11203,7 @@
         <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>82</v>
@@ -11172,7 +11212,7 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11180,14 +11220,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>82</v>
+        <v>297</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11197,7 +11237,7 @@
         <v>81</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>82</v>
@@ -11209,12 +11249,14 @@
         <v>185</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>311</v>
+        <v>542</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11263,7 +11305,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11278,7 +11320,7 @@
         <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>82</v>
@@ -11287,7 +11329,7 @@
         <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11295,10 +11337,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11309,7 +11351,7 @@
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>82</v>
@@ -11321,18 +11363,16 @@
         <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>319</v>
-      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>82</v>
       </c>
@@ -11380,13 +11420,13 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>82</v>
@@ -11395,7 +11435,7 @@
         <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>82</v>
@@ -11404,7 +11444,7 @@
         <v>82</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
@@ -11412,10 +11452,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11435,23 +11475,19 @@
         <v>82</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>324</v>
+        <v>185</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>538</v>
+        <v>311</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11499,7 +11535,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>537</v>
+        <v>313</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11514,16 +11550,16 @@
         <v>102</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>541</v>
+        <v>315</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11531,10 +11567,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11554,19 +11590,21 @@
         <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>186</v>
+        <v>317</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>187</v>
+        <v>318</v>
       </c>
       <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
       </c>
@@ -11614,7 +11652,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>188</v>
+        <v>320</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11626,10 +11664,10 @@
         <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>189</v>
+        <v>321</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>82</v>
@@ -11638,7 +11676,7 @@
         <v>82</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>82</v>
+        <v>322</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11646,14 +11684,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11672,18 +11710,20 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>135</v>
+        <v>324</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>192</v>
+        <v>547</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>193</v>
+        <v>548</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O79" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
       </c>
@@ -11719,19 +11759,19 @@
         <v>82</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>196</v>
+        <v>546</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11743,19 +11783,19 @@
         <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK79" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AL79" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>82</v>
+        <v>550</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11763,10 +11803,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11780,22 +11820,22 @@
         <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>545</v>
+        <v>186</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>546</v>
+        <v>187</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11822,13 +11862,13 @@
         <v>82</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>547</v>
+        <v>82</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>548</v>
+        <v>82</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -11846,7 +11886,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>549</v>
+        <v>188</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11855,13 +11895,13 @@
         <v>90</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>550</v>
+        <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>551</v>
+        <v>189</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>82</v>
@@ -11870,7 +11910,7 @@
         <v>82</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>552</v>
+        <v>82</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -11878,46 +11918,44 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>554</v>
+        <v>192</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>555</v>
+        <v>193</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>557</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>82</v>
       </c>
@@ -11953,34 +11991,34 @@
         <v>82</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>558</v>
+        <v>196</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>559</v>
+        <v>189</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>82</v>
@@ -11989,7 +12027,7 @@
         <v>82</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>560</v>
+        <v>82</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -11997,10 +12035,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12011,13 +12049,13 @@
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>91</v>
@@ -12026,17 +12064,13 @@
         <v>110</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>565</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
@@ -12063,10 +12097,10 @@
         <v>202</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
@@ -12084,7 +12118,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12093,13 +12127,13 @@
         <v>90</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>82</v>
+        <v>559</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>278</v>
+        <v>560</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>82</v>
@@ -12108,7 +12142,7 @@
         <v>82</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12116,10 +12150,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12133,7 +12167,7 @@
         <v>90</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>82</v>
@@ -12142,18 +12176,20 @@
         <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>571</v>
+        <v>185</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>565</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>566</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
       </c>
@@ -12201,7 +12237,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12216,7 +12252,7 @@
         <v>102</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>189</v>
+        <v>568</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>82</v>
@@ -12225,7 +12261,7 @@
         <v>82</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>189</v>
+        <v>569</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12233,10 +12269,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12247,28 +12283,32 @@
         <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
+        <v>572</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
@@ -12292,13 +12332,13 @@
         <v>82</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>82</v>
+        <v>576</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>82</v>
@@ -12316,7 +12356,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12331,7 +12371,7 @@
         <v>102</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>82</v>
@@ -12340,7 +12380,7 @@
         <v>82</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>133</v>
+        <v>578</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12348,10 +12388,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12371,10 +12411,10 @@
         <v>82</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>360</v>
+        <v>580</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>581</v>
@@ -12382,10 +12422,10 @@
       <c r="M85" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>583</v>
       </c>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>82</v>
       </c>
@@ -12433,7 +12473,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12448,16 +12488,16 @@
         <v>102</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>365</v>
+        <v>189</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12488,16 +12528,16 @@
         <v>82</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>186</v>
+        <v>586</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>187</v>
+        <v>587</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12548,7 +12588,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>188</v>
+        <v>588</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12560,10 +12600,10 @@
         <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>189</v>
+        <v>321</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>82</v>
@@ -12572,7 +12612,7 @@
         <v>82</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12580,21 +12620,21 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>82</v>
@@ -12606,18 +12646,18 @@
         <v>82</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>135</v>
+        <v>369</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>192</v>
+        <v>590</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O87" s="2"/>
+        <v>591</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>592</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
       </c>
@@ -12653,43 +12693,43 @@
         <v>82</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>196</v>
+        <v>589</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK87" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL87" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AL87" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>82</v>
+        <v>593</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12697,14 +12737,12 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
         <v>82</v>
       </c>
@@ -12716,7 +12754,7 @@
         <v>90</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>82</v>
@@ -12725,13 +12763,13 @@
         <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>372</v>
+        <v>185</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>373</v>
+        <v>186</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>374</v>
+        <v>187</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12782,22 +12820,22 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>82</v>
@@ -12814,46 +12852,44 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>376</v>
+        <v>192</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>377</v>
+        <v>193</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
@@ -12865,7 +12901,7 @@
         <v>82</v>
       </c>
       <c r="T89" t="s" s="2">
-        <v>380</v>
+        <v>82</v>
       </c>
       <c r="U89" t="s" s="2">
         <v>82</v>
@@ -12877,46 +12913,46 @@
         <v>82</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>382</v>
+        <v>82</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>383</v>
+        <v>196</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>278</v>
+        <v>189</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>82</v>
@@ -12925,7 +12961,7 @@
         <v>82</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
@@ -12933,12 +12969,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>595</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="D90" t="s" s="2">
         <v>82</v>
       </c>
@@ -12950,26 +12988,24 @@
         <v>90</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>110</v>
+        <v>381</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -12982,7 +13018,7 @@
         <v>82</v>
       </c>
       <c r="T90" t="s" s="2">
-        <v>389</v>
+        <v>82</v>
       </c>
       <c r="U90" t="s" s="2">
         <v>82</v>
@@ -12994,13 +13030,13 @@
         <v>82</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>391</v>
+        <v>82</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>82</v>
@@ -13018,22 +13054,22 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>392</v>
+        <v>196</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>278</v>
+        <v>82</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>82</v>
@@ -13042,7 +13078,7 @@
         <v>82</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>393</v>
+        <v>82</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13050,10 +13086,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13064,31 +13100,31 @@
         <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J91" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>284</v>
+        <v>388</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13101,7 +13137,7 @@
         <v>82</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>82</v>
@@ -13113,13 +13149,13 @@
         <v>82</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>82</v>
+        <v>390</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>82</v>
+        <v>391</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13137,7 +13173,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13152,7 +13188,7 @@
         <v>102</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>82</v>
@@ -13161,7 +13197,7 @@
         <v>82</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13169,10 +13205,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13186,7 +13222,7 @@
         <v>90</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>82</v>
@@ -13195,15 +13231,17 @@
         <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>592</v>
+        <v>395</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13216,7 +13254,7 @@
         <v>82</v>
       </c>
       <c r="T92" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="U92" t="s" s="2">
         <v>82</v>
@@ -13228,13 +13266,13 @@
         <v>82</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>82</v>
+        <v>399</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -13252,13 +13290,13 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>82</v>
@@ -13267,7 +13305,7 @@
         <v>102</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>406</v>
+        <v>278</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>82</v>
@@ -13276,7 +13314,7 @@
         <v>82</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
@@ -13284,14 +13322,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>409</v>
+        <v>82</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13313,13 +13351,17 @@
         <v>185</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>594</v>
+        <v>404</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
       </c>
@@ -13331,7 +13373,7 @@
         <v>82</v>
       </c>
       <c r="T93" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="U93" t="s" s="2">
         <v>82</v>
@@ -13367,7 +13409,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13382,7 +13424,7 @@
         <v>102</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>414</v>
+        <v>286</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>82</v>
@@ -13391,7 +13433,7 @@
         <v>82</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
@@ -13399,14 +13441,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>417</v>
+        <v>82</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13416,7 +13458,7 @@
         <v>90</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>82</v>
@@ -13428,14 +13470,12 @@
         <v>185</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13448,7 +13488,7 @@
         <v>82</v>
       </c>
       <c r="T94" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="U94" t="s" s="2">
         <v>82</v>
@@ -13460,11 +13500,13 @@
         <v>82</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="Y94" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z94" t="s" s="2">
-        <v>422</v>
+        <v>82</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>82</v>
@@ -13482,13 +13524,13 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>82</v>
@@ -13497,7 +13539,7 @@
         <v>102</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>82</v>
@@ -13506,7 +13548,7 @@
         <v>82</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -13514,14 +13556,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13543,10 +13585,10 @@
         <v>185</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13561,7 +13603,7 @@
         <v>82</v>
       </c>
       <c r="T95" t="s" s="2">
-        <v>82</v>
+        <v>421</v>
       </c>
       <c r="U95" t="s" s="2">
         <v>82</v>
@@ -13573,11 +13615,13 @@
         <v>82</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="Y95" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z95" t="s" s="2">
-        <v>430</v>
+        <v>82</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>82</v>
@@ -13595,7 +13639,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13610,7 +13654,7 @@
         <v>102</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>82</v>
@@ -13619,7 +13663,7 @@
         <v>82</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -13627,14 +13671,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13656,12 +13700,14 @@
         <v>185</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>436</v>
+        <v>605</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>606</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>82</v>
@@ -13674,7 +13720,7 @@
         <v>82</v>
       </c>
       <c r="T96" t="s" s="2">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="U96" t="s" s="2">
         <v>82</v>
@@ -13686,13 +13732,11 @@
         <v>82</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="Y96" s="2"/>
       <c r="Z96" t="s" s="2">
-        <v>82</v>
+        <v>431</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>82</v>
@@ -13710,7 +13754,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13725,7 +13769,7 @@
         <v>102</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>82</v>
@@ -13734,7 +13778,7 @@
         <v>82</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -13742,14 +13786,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>82</v>
+        <v>436</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13771,14 +13815,12 @@
         <v>185</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>443</v>
+        <v>608</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -13803,13 +13845,11 @@
         <v>82</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="Y97" s="2"/>
       <c r="Z97" t="s" s="2">
-        <v>82</v>
+        <v>439</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>82</v>
@@ -13827,7 +13867,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13842,7 +13882,7 @@
         <v>102</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>82</v>
@@ -13851,7 +13891,7 @@
         <v>82</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -13859,14 +13899,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>82</v>
+        <v>444</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13885,18 +13925,16 @@
         <v>91</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>452</v>
-      </c>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>82</v>
       </c>
@@ -13908,7 +13946,7 @@
         <v>82</v>
       </c>
       <c r="T98" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="U98" t="s" s="2">
         <v>82</v>
@@ -13944,7 +13982,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -13959,7 +13997,7 @@
         <v>102</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>321</v>
+        <v>449</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>82</v>
@@ -13968,7 +14006,7 @@
         <v>82</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -13976,10 +14014,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13999,21 +14037,21 @@
         <v>82</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>604</v>
+        <v>452</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>606</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>82</v>
       </c>
@@ -14037,13 +14075,13 @@
         <v>82</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>607</v>
+        <v>82</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>608</v>
+        <v>82</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>82</v>
@@ -14061,7 +14099,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>603</v>
+        <v>455</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14076,16 +14114,16 @@
         <v>102</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>338</v>
+        <v>456</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>609</v>
+        <v>457</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14093,10 +14131,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14116,20 +14154,20 @@
         <v>82</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>611</v>
+        <v>459</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>612</v>
+        <v>460</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>613</v>
+        <v>461</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14142,7 +14180,7 @@
         <v>82</v>
       </c>
       <c r="T100" t="s" s="2">
-        <v>82</v>
+        <v>462</v>
       </c>
       <c r="U100" t="s" s="2">
         <v>82</v>
@@ -14178,7 +14216,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>610</v>
+        <v>463</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14187,22 +14225,22 @@
         <v>90</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>614</v>
+        <v>82</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>615</v>
+        <v>321</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>616</v>
+        <v>464</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14210,10 +14248,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14236,16 +14274,18 @@
         <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>615</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
       </c>
@@ -14269,13 +14309,13 @@
         <v>82</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>82</v>
+        <v>616</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>82</v>
+        <v>617</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>82</v>
@@ -14293,7 +14333,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14308,7 +14348,7 @@
         <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>620</v>
+        <v>338</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>189</v>
@@ -14317,7 +14357,7 @@
         <v>82</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>82</v>
+        <v>618</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
@@ -14325,10 +14365,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14339,7 +14379,7 @@
         <v>80</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>82</v>
@@ -14351,19 +14391,17 @@
         <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>482</v>
+        <v>243</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14412,31 +14450,31 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>82</v>
+        <v>623</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>627</v>
+        <v>189</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>82</v>
+        <v>625</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14444,10 +14482,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14470,13 +14508,13 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>186</v>
+        <v>627</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>187</v>
+        <v>628</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14527,7 +14565,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>188</v>
+        <v>626</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14539,13 +14577,13 @@
         <v>82</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK103" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AL103" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>82</v>
@@ -14559,14 +14597,14 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14585,18 +14623,20 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>135</v>
+        <v>491</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>192</v>
+        <v>631</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>193</v>
+        <v>632</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O104" s="2"/>
+        <v>633</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>634</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
       </c>
@@ -14644,7 +14684,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>196</v>
+        <v>630</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14656,13 +14696,13 @@
         <v>82</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>189</v>
+        <v>635</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>82</v>
+        <v>636</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>82</v>
@@ -14676,46 +14716,42 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>631</v>
+        <v>82</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>632</v>
+        <v>186</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>634</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>82</v>
       </c>
@@ -14763,22 +14799,22 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>492</v>
+        <v>188</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>82</v>
@@ -14795,21 +14831,21 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>82</v>
@@ -14821,20 +14857,18 @@
         <v>82</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>636</v>
+        <v>192</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>637</v>
+        <v>193</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>639</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>82</v>
       </c>
@@ -14858,13 +14892,13 @@
         <v>82</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>82</v>
@@ -14882,31 +14916,31 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>635</v>
+        <v>196</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>640</v>
+        <v>189</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>641</v>
+        <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>642</v>
+        <v>82</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
@@ -14914,45 +14948,45 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>82</v>
+        <v>640</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>646</v>
+        <v>194</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15001,31 +15035,31 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>643</v>
+        <v>501</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>648</v>
+        <v>133</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>649</v>
+        <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>650</v>
+        <v>82</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15033,21 +15067,21 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>652</v>
+        <v>82</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>82</v>
@@ -15059,18 +15093,20 @@
         <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>653</v>
+        <v>208</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="O108" s="2"/>
+        <v>647</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>648</v>
+      </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
       </c>
@@ -15094,13 +15130,11 @@
         <v>82</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="Y108" s="2"/>
       <c r="Z108" t="s" s="2">
-        <v>82</v>
+        <v>649</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>82</v>
@@ -15118,13 +15152,13 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>82</v>
@@ -15133,16 +15167,16 @@
         <v>102</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>189</v>
+        <v>651</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -15150,10 +15184,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15173,22 +15207,22 @@
         <v>82</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -15237,7 +15271,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15252,16 +15286,16 @@
         <v>102</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>615</v>
+        <v>658</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>82</v>
+        <v>660</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15269,14 +15303,14 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>82</v>
+        <v>662</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -15289,26 +15323,24 @@
         <v>82</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>482</v>
+        <v>663</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="N110" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="M110" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>669</v>
-      </c>
+      <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>82</v>
       </c>
@@ -15356,7 +15388,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15371,7 +15403,7 @@
         <v>102</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>189</v>
@@ -15380,7 +15412,7 @@
         <v>82</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>82</v>
+        <v>668</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15388,10 +15420,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15411,19 +15443,23 @@
         <v>82</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>186</v>
+        <v>670</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
+        <v>671</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>673</v>
+      </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
       </c>
@@ -15471,7 +15507,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>188</v>
+        <v>669</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15483,13 +15519,13 @@
         <v>82</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>189</v>
+        <v>624</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>82</v>
+        <v>674</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>82</v>
@@ -15503,14 +15539,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15523,24 +15559,26 @@
         <v>82</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>135</v>
+        <v>491</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>192</v>
+        <v>676</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>193</v>
+        <v>677</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O112" s="2"/>
+        <v>678</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>679</v>
+      </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
       </c>
@@ -15588,7 +15626,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>196</v>
+        <v>675</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15600,13 +15638,13 @@
         <v>82</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK112" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="AL112" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>82</v>
@@ -15620,10 +15658,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15634,25 +15672,25 @@
         <v>80</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -15703,22 +15741,22 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>492</v>
+        <v>188</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>82</v>
@@ -15735,21 +15773,21 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>82</v>
@@ -15758,19 +15796,19 @@
         <v>82</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>675</v>
+        <v>135</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>676</v>
+        <v>192</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>677</v>
+        <v>193</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>678</v>
+        <v>194</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -15820,31 +15858,31 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>674</v>
+        <v>196</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>679</v>
+        <v>82</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -15852,10 +15890,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15863,28 +15901,28 @@
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J115" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>681</v>
+        <v>136</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>682</v>
+        <v>137</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -15911,62 +15949,294 @@
         <v>82</v>
       </c>
       <c r="X115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO115" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="116" hidden="true">
+      <c r="A116" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="O116" s="2"/>
+      <c r="P116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="AO116" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X117" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Y115" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="AG115" t="s" s="2">
+      <c r="Y117" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="AG117" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AH115" t="s" s="2">
+      <c r="AH117" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AI115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
+      <c r="AI117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AK115" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="AL115" t="s" s="2">
+      <c r="AK117" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="AL117" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AM115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO115" t="s" s="2">
+      <c r="AM117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO117" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO115">
+  <autoFilter ref="A1:AO117">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15976,7 +16246,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI114">
+  <conditionalFormatting sqref="A2:AI116">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-NgImmPatient.xlsx
+++ b/StructureDefinition-NgImmPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T11:54:34+01:00</t>
+    <t>2025-07-03T13:36:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-NgImmPatient.xlsx
+++ b/StructureDefinition-NgImmPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T13:36:09+01:00</t>
+    <t>2025-07-04T07:50:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1065,7 +1065,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-gender</t>
+    <t>https://nphcda.gov.ng/immunizationIG/ValueSet/nigeria-gender</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
@@ -1355,7 +1355,7 @@
     <t>Madison</t>
   </si>
   <si>
-    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-lgas</t>
+    <t>https://nphcda.gov.ng/immunizationIG/ValueSet/nigeria-lgas</t>
   </si>
   <si>
     <t>Address.district</t>
@@ -1380,7 +1380,7 @@
     <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
   </si>
   <si>
-    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-states</t>
+    <t>https://nphcda.gov.ng/immunizationIG/ValueSet/nigeria-states</t>
   </si>
   <si>
     <t>Address.state</t>
@@ -1653,7 +1653,7 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
-    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-relationship</t>
+    <t>https://nphcda.gov.ng/immunizationIG/ValueSet/nigeria-relationship</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -2027,7 +2027,7 @@
     <t>Most systems in multilingual countries will want to convey language. Not all systems actually need the regional dialect.</t>
   </si>
   <si>
-    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-languages</t>
+    <t>https://nphcda.gov.ng/immunizationIG/ValueSet/nigeria-languages</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/languageCommunication/code</t>
@@ -2531,7 +2531,7 @@
     <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="45.25390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.95703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
@@ -10462,7 +10462,7 @@
         <v>82</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">

--- a/StructureDefinition-NgImmPatient.xlsx
+++ b/StructureDefinition-NgImmPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T16:58:52+01:00</t>
+    <t>2025-07-04T18:56:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-NgImmPatient.xlsx
+++ b/StructureDefinition-NgImmPatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T18:56:28+01:00</t>
+    <t>2025-07-04T19:33:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-NgImmPatient.xlsx
+++ b/StructureDefinition-NgImmPatient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$134</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4625" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4998" uniqueCount="794">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T19:33:02+01:00</t>
+    <t>2025-07-17T18:57:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1401,7 +1401,7 @@
     <t>Patient.address.line</t>
   </si>
   <si>
-    <t>The house number number, stree, village, setttement, and name where the Client lives</t>
+    <t>The house number number, stree, and name where the Client lives</t>
   </si>
   <si>
     <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
@@ -1426,7 +1426,7 @@
 </t>
   </si>
   <si>
-    <t>The city, town or settlement where the client lives in the state</t>
+    <t>The city, village, town or settlement where the client lives in the state</t>
   </si>
   <si>
     <t>The name of the city, town, suburb, village or other community or delivery center.</t>
@@ -1650,6 +1650,204 @@
     <t>OBX-5 - needs a profile</t>
   </si>
   <si>
+    <t>Patient.photo.id</t>
+  </si>
+  <si>
+    <t>Patient.photo.extension</t>
+  </si>
+  <si>
+    <t>Patient.photo.contentType</t>
+  </si>
+  <si>
+    <t>Type of image (e.g., image/jpeg)</t>
+  </si>
+  <si>
+    <t>Identifies the type of the data in the attachment and allows a method to be chosen to interpret or render the data. Includes mime type parameters such as charset where appropriate.</t>
+  </si>
+  <si>
+    <t>Processors of the data need to be able to know how to interpret the data.</t>
+  </si>
+  <si>
+    <t>text/plain; charset=UTF-8, image/png</t>
+  </si>
+  <si>
+    <t>The mime type of an attachment. Any valid mime type is allowed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/mimetypes|4.0.1</t>
+  </si>
+  <si>
+    <t>Attachment.contentType</t>
+  </si>
+  <si>
+    <t>./mediaType, ./charset</t>
+  </si>
+  <si>
+    <t>ED.2+ED.3/RP.2+RP.3. Note conversion may be needed if old style values are being used</t>
+  </si>
+  <si>
+    <t>Patient.photo.language</t>
+  </si>
+  <si>
+    <t>Human language of the content (BCP-47)</t>
+  </si>
+  <si>
+    <t>The human language of the content. The value can be any valid value according to BCP 47.</t>
+  </si>
+  <si>
+    <t>Users need to be able to choose between the languages in a set of attachments.</t>
+  </si>
+  <si>
+    <t>en-AU</t>
+  </si>
+  <si>
+    <t>Attachment.language</t>
+  </si>
+  <si>
+    <t>./language</t>
+  </si>
+  <si>
+    <t>Patient.photo.data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base64Binary
+</t>
+  </si>
+  <si>
+    <t>Base64 encoded image data</t>
+  </si>
+  <si>
+    <t>The actual data of the attachment - a sequence of bytes, base64 encoded.</t>
+  </si>
+  <si>
+    <t>The base64-encoded data SHALL be expressed in the same character set as the base resource XML or JSON.</t>
+  </si>
+  <si>
+    <t>The data needs to able to be transmitted inline.</t>
+  </si>
+  <si>
+    <t>Attachment.data</t>
+  </si>
+  <si>
+    <t>./data</t>
+  </si>
+  <si>
+    <t>ED.5</t>
+  </si>
+  <si>
+    <t>Patient.photo.url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url
+</t>
+  </si>
+  <si>
+    <t>Public URL or internal endpoint to the patient's photo</t>
+  </si>
+  <si>
+    <t>A location where the data can be accessed.</t>
+  </si>
+  <si>
+    <t>If both data and url are provided, the url SHALL point to the same content as the data contains. Urls may be relative references or may reference transient locations such as a wrapping envelope using cid: though this has ramifications for using signatures. Relative URLs are interpreted relative to the service url, like a resource reference, rather than relative to the resource itself. If a URL is provided, it SHALL resolve to actual data.</t>
+  </si>
+  <si>
+    <t>The data needs to be transmitted by reference.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/logo-small.png</t>
+  </si>
+  <si>
+    <t>Attachment.url</t>
+  </si>
+  <si>
+    <t>./reference/literal</t>
+  </si>
+  <si>
+    <t>RP.1+RP.2 - if they refer to a URL (see v2.6)</t>
+  </si>
+  <si>
+    <t>Patient.photo.size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsignedInt
+</t>
+  </si>
+  <si>
+    <t>The size of the image in mega bytes MB</t>
+  </si>
+  <si>
+    <t>The number of bytes of data that make up this attachment (before base64 encoding, if that is done).</t>
+  </si>
+  <si>
+    <t>The number of bytes is redundant if the data is provided as a base64binary, but is useful if the data is provided as a url reference.</t>
+  </si>
+  <si>
+    <t>Representing the size allows applications to determine whether they should fetch the content automatically in advance, or refuse to fetch it at all.</t>
+  </si>
+  <si>
+    <t>Attachment.size</t>
+  </si>
+  <si>
+    <t>N/A (needs data type R3 proposal)</t>
+  </si>
+  <si>
+    <t>Patient.photo.hash</t>
+  </si>
+  <si>
+    <t>Hash of the data (sha-1, base64ed)</t>
+  </si>
+  <si>
+    <t>The calculated hash of the data using SHA-1. Represented using base64.</t>
+  </si>
+  <si>
+    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/R4/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
+  </si>
+  <si>
+    <t>Included so that applications can verify that the contents of a location have not changed due to technical failures (e.g., storage rot, transport glitch, incorrect version).</t>
+  </si>
+  <si>
+    <t>Attachment.hash</t>
+  </si>
+  <si>
+    <t>.integrityCheck[parent::ED/integrityCheckAlgorithm="SHA-1"]</t>
+  </si>
+  <si>
+    <t>Patient.photo.title</t>
+  </si>
+  <si>
+    <t>The label of the image</t>
+  </si>
+  <si>
+    <t>A label or set of text to display in place of the data.</t>
+  </si>
+  <si>
+    <t>Applications need a label to display to a human user in place of the actual data if the data cannot be rendered or perceived by the viewer.</t>
+  </si>
+  <si>
+    <t>Official Corporate Logo</t>
+  </si>
+  <si>
+    <t>Attachment.title</t>
+  </si>
+  <si>
+    <t>./title/data</t>
+  </si>
+  <si>
+    <t>Patient.photo.creation</t>
+  </si>
+  <si>
+    <t>Date attachment was first created</t>
+  </si>
+  <si>
+    <t>The date that the attachment was first created.</t>
+  </si>
+  <si>
+    <t>This is often tracked as an integrity issue for use of the attachment.</t>
+  </si>
+  <si>
+    <t>Attachment.creation</t>
+  </si>
+  <si>
     <t>Patient.contact</t>
   </si>
   <si>
@@ -2119,7 +2317,7 @@
     <t>Patient.communication.language</t>
   </si>
   <si>
-    <t>A language which can be used to communicate with the patient about his or her health</t>
+    <t>Preferred language which can be used to communicate with the patient about his or her health</t>
   </si>
   <si>
     <t>The ISO-639-1 alpha 2 code in lower case for the language, optionally followed by a hyphen and the ISO-3166-1 alpha 2 code for the region in upper case; e.g. "en" for English, or "en-US" for American English versus "en-EN" for England English.</t>
@@ -2601,7 +2799,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO124"/>
+  <dimension ref="A1:AO134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10284,7 +10482,7 @@
         <v>81</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>82</v>
@@ -10400,7 +10598,7 @@
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10412,20 +10610,16 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>526</v>
+        <v>104</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>527</v>
+        <v>105</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>530</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>82</v>
       </c>
@@ -10473,25 +10667,25 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>525</v>
+        <v>107</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>531</v>
+        <v>82</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>532</v>
+        <v>108</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>82</v>
@@ -10505,21 +10699,21 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
@@ -10531,15 +10725,17 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10576,31 +10772,31 @@
         <v>82</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>108</v>
@@ -10620,21 +10816,21 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -10643,21 +10839,21 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>112</v>
+        <v>528</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>529</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
       </c>
@@ -10669,7 +10865,7 @@
         <v>82</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>82</v>
+        <v>531</v>
       </c>
       <c r="U69" t="s" s="2">
         <v>82</v>
@@ -10681,13 +10877,13 @@
         <v>82</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>82</v>
+        <v>238</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>82</v>
+        <v>532</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>82</v>
+        <v>533</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>82</v>
@@ -10705,22 +10901,22 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>118</v>
+        <v>534</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>108</v>
+        <v>535</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>82</v>
@@ -10729,7 +10925,7 @@
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>82</v>
+        <v>536</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10737,10 +10933,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10751,28 +10947,30 @@
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>191</v>
+        <v>538</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>192</v>
+        <v>539</v>
       </c>
       <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>540</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
@@ -10784,7 +10982,7 @@
         <v>82</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>82</v>
+        <v>541</v>
       </c>
       <c r="U70" t="s" s="2">
         <v>82</v>
@@ -10796,13 +10994,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10820,22 +11018,22 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>82</v>
+        <v>543</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>82</v>
@@ -10852,10 +11050,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10866,7 +11064,7 @@
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
@@ -10878,17 +11076,19 @@
         <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>244</v>
+        <v>545</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>547</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>548</v>
+      </c>
       <c r="O71" t="s" s="2">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10913,13 +11113,13 @@
         <v>82</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>541</v>
+        <v>82</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>542</v>
+        <v>82</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -10937,13 +11137,13 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>82</v>
@@ -10952,16 +11152,16 @@
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10969,10 +11169,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10992,19 +11192,23 @@
         <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>104</v>
+        <v>554</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>105</v>
+        <v>555</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>558</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
@@ -11016,7 +11220,7 @@
         <v>82</v>
       </c>
       <c r="T72" t="s" s="2">
-        <v>82</v>
+        <v>559</v>
       </c>
       <c r="U72" t="s" s="2">
         <v>82</v>
@@ -11052,7 +11256,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>107</v>
+        <v>560</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11064,10 +11268,10 @@
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>108</v>
+        <v>561</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>82</v>
@@ -11076,7 +11280,7 @@
         <v>82</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>82</v>
+        <v>562</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11084,21 +11288,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
@@ -11107,21 +11311,23 @@
         <v>82</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>111</v>
+        <v>564</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>112</v>
+        <v>565</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>113</v>
+        <v>566</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>567</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>568</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
       </c>
@@ -11157,34 +11363,34 @@
         <v>82</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>118</v>
+        <v>569</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>108</v>
+        <v>570</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>82</v>
@@ -11201,10 +11407,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11215,7 +11421,7 @@
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>82</v>
@@ -11227,19 +11433,19 @@
         <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>144</v>
+        <v>545</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11288,13 +11494,13 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>82</v>
@@ -11303,7 +11509,7 @@
         <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>82</v>
@@ -11312,7 +11518,7 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>554</v>
+        <v>82</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11320,10 +11526,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>555</v>
+        <v>578</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>555</v>
+        <v>578</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11349,16 +11555,14 @@
         <v>104</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>558</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11371,7 +11575,7 @@
         <v>82</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>82</v>
+        <v>582</v>
       </c>
       <c r="U75" t="s" s="2">
         <v>82</v>
@@ -11383,11 +11587,13 @@
         <v>82</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="Y75" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z75" t="s" s="2">
-        <v>560</v>
+        <v>82</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>82</v>
@@ -11405,7 +11611,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>561</v>
+        <v>583</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11420,7 +11626,7 @@
         <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>562</v>
+        <v>584</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>82</v>
@@ -11429,7 +11635,7 @@
         <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>563</v>
+        <v>82</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11437,10 +11643,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>564</v>
+        <v>585</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>564</v>
+        <v>585</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11460,20 +11666,20 @@
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>295</v>
+        <v>401</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>565</v>
+        <v>586</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>566</v>
+        <v>587</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>567</v>
+        <v>588</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11522,7 +11728,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11537,16 +11743,16 @@
         <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>300</v>
+        <v>570</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>568</v>
+        <v>82</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
@@ -11554,10 +11760,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>569</v>
+        <v>590</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>569</v>
+        <v>590</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11568,7 +11774,7 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>82</v>
@@ -11580,16 +11786,20 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>104</v>
+        <v>591</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>105</v>
+        <v>592</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>593</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>595</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11637,25 +11847,25 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>107</v>
+        <v>590</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>82</v>
+        <v>596</v>
       </c>
       <c r="AK77" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>82</v>
@@ -11669,21 +11879,21 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>570</v>
+        <v>598</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>570</v>
+        <v>598</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>82</v>
@@ -11695,17 +11905,15 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11742,31 +11950,31 @@
         <v>82</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>108</v>
@@ -11786,46 +11994,44 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>571</v>
+        <v>599</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>571</v>
+        <v>599</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>306</v>
+        <v>112</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>307</v>
+        <v>113</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>82</v>
       </c>
@@ -11849,13 +12055,13 @@
         <v>82</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>238</v>
+        <v>82</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>310</v>
+        <v>82</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>311</v>
+        <v>82</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11873,22 +12079,22 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>312</v>
+        <v>118</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>313</v>
+        <v>108</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>82</v>
@@ -11897,7 +12103,7 @@
         <v>82</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>314</v>
+        <v>82</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11905,10 +12111,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>572</v>
+        <v>600</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>572</v>
+        <v>600</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11919,32 +12125,28 @@
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>316</v>
+        <v>191</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>82</v>
       </c>
@@ -11992,22 +12194,22 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>320</v>
+        <v>601</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>321</v>
+        <v>82</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>82</v>
@@ -12016,7 +12218,7 @@
         <v>82</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>322</v>
+        <v>82</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12024,44 +12226,44 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>573</v>
+        <v>602</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>573</v>
+        <v>602</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>324</v>
+        <v>82</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>574</v>
+        <v>603</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>604</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>605</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
       </c>
@@ -12085,13 +12287,13 @@
         <v>82</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>82</v>
+        <v>606</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>82</v>
+        <v>607</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>82</v>
@@ -12109,13 +12311,13 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>328</v>
+        <v>602</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>82</v>
@@ -12124,16 +12326,16 @@
         <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>329</v>
+        <v>608</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>330</v>
+        <v>609</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12141,43 +12343,41 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>575</v>
+        <v>610</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>575</v>
+        <v>610</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>332</v>
+        <v>82</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>104</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>576</v>
+        <v>105</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12226,22 +12426,22 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>336</v>
+        <v>107</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>337</v>
+        <v>108</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>82</v>
@@ -12250,7 +12450,7 @@
         <v>82</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>338</v>
+        <v>82</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12258,14 +12458,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>577</v>
+        <v>611</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>577</v>
+        <v>611</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12281,18 +12481,20 @@
         <v>82</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>340</v>
+        <v>112</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12329,19 +12531,19 @@
         <v>82</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>342</v>
+        <v>118</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12353,10 +12555,10 @@
         <v>82</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>343</v>
+        <v>108</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>82</v>
@@ -12365,7 +12567,7 @@
         <v>82</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>344</v>
+        <v>82</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12373,10 +12575,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>578</v>
+        <v>612</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>578</v>
+        <v>612</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12399,16 +12601,20 @@
         <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>346</v>
+        <v>613</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
+        <v>614</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>616</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
@@ -12456,7 +12662,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>348</v>
+        <v>617</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12471,7 +12677,7 @@
         <v>102</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>349</v>
+        <v>618</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>82</v>
@@ -12480,7 +12686,7 @@
         <v>82</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>350</v>
+        <v>619</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12488,10 +12694,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>579</v>
+        <v>620</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>579</v>
+        <v>620</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12514,17 +12720,19 @@
         <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>271</v>
+        <v>104</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>352</v>
+        <v>621</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>622</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>623</v>
+      </c>
       <c r="O85" t="s" s="2">
-        <v>354</v>
+        <v>624</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12549,13 +12757,11 @@
         <v>82</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>82</v>
+        <v>625</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>82</v>
@@ -12573,7 +12779,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>355</v>
+        <v>626</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12588,7 +12794,7 @@
         <v>102</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>356</v>
+        <v>627</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>82</v>
@@ -12597,7 +12803,7 @@
         <v>82</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>357</v>
+        <v>628</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12605,10 +12811,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>580</v>
+        <v>629</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>580</v>
+        <v>629</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12619,7 +12825,7 @@
         <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>82</v>
@@ -12631,19 +12837,17 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>359</v>
+        <v>295</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>581</v>
+        <v>630</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>583</v>
-      </c>
+        <v>631</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>363</v>
+        <v>632</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12692,13 +12896,13 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>580</v>
+        <v>629</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>82</v>
@@ -12707,7 +12911,7 @@
         <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>364</v>
+        <v>300</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>108</v>
@@ -12716,7 +12920,7 @@
         <v>82</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>584</v>
+        <v>633</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12724,10 +12928,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>585</v>
+        <v>634</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>585</v>
+        <v>634</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12839,10 +13043,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>586</v>
+        <v>635</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>586</v>
+        <v>635</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12956,10 +13160,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>587</v>
+        <v>636</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>587</v>
+        <v>636</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12970,13 +13174,13 @@
         <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I89" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>91</v>
@@ -12985,13 +13189,17 @@
         <v>166</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>588</v>
+        <v>306</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
@@ -13018,10 +13226,10 @@
         <v>238</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>590</v>
+        <v>310</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>591</v>
+        <v>311</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>82</v>
@@ -13039,7 +13247,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>592</v>
+        <v>312</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13048,13 +13256,13 @@
         <v>90</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>593</v>
+        <v>82</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>594</v>
+        <v>313</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>82</v>
@@ -13063,7 +13271,7 @@
         <v>82</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>595</v>
+        <v>314</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
@@ -13071,10 +13279,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>596</v>
+        <v>637</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>596</v>
+        <v>637</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13088,7 +13296,7 @@
         <v>90</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>82</v>
@@ -13100,16 +13308,16 @@
         <v>104</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>597</v>
+        <v>316</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>598</v>
+        <v>317</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>599</v>
+        <v>318</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>600</v>
+        <v>319</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -13158,7 +13366,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>601</v>
+        <v>320</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13173,7 +13381,7 @@
         <v>102</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>602</v>
+        <v>321</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>82</v>
@@ -13182,7 +13390,7 @@
         <v>82</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>603</v>
+        <v>322</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13190,46 +13398,44 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>604</v>
+        <v>638</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>604</v>
+        <v>638</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J91" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>605</v>
+        <v>639</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>606</v>
+        <v>326</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>608</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>82</v>
       </c>
@@ -13253,13 +13459,13 @@
         <v>82</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>238</v>
+        <v>82</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>609</v>
+        <v>82</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>610</v>
+        <v>82</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13277,7 +13483,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>611</v>
+        <v>328</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13292,7 +13498,7 @@
         <v>102</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>82</v>
@@ -13301,7 +13507,7 @@
         <v>82</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>612</v>
+        <v>330</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13309,24 +13515,24 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>613</v>
+        <v>640</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>613</v>
+        <v>640</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>82</v>
@@ -13335,16 +13541,16 @@
         <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>614</v>
+        <v>104</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>615</v>
+        <v>641</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>616</v>
+        <v>334</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>617</v>
+        <v>335</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13394,13 +13600,13 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>618</v>
+        <v>336</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>82</v>
@@ -13409,7 +13615,7 @@
         <v>102</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>108</v>
+        <v>337</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>82</v>
@@ -13418,7 +13624,7 @@
         <v>82</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>108</v>
+        <v>338</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
@@ -13426,10 +13632,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>619</v>
+        <v>642</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>619</v>
+        <v>642</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13440,7 +13646,7 @@
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>82</v>
@@ -13452,13 +13658,13 @@
         <v>91</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>271</v>
+        <v>104</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>620</v>
+        <v>340</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>621</v>
+        <v>341</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13509,13 +13715,13 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>622</v>
+        <v>342</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>82</v>
@@ -13524,7 +13730,7 @@
         <v>102</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>82</v>
@@ -13533,7 +13739,7 @@
         <v>82</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>189</v>
+        <v>344</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
@@ -13541,10 +13747,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13555,7 +13761,7 @@
         <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>82</v>
@@ -13564,21 +13770,19 @@
         <v>82</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>404</v>
+        <v>104</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>624</v>
+        <v>346</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>625</v>
+        <v>347</v>
       </c>
       <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>626</v>
-      </c>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
@@ -13626,13 +13830,13 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>623</v>
+        <v>348</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>82</v>
@@ -13641,16 +13845,16 @@
         <v>102</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>627</v>
+        <v>350</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -13658,10 +13862,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13681,19 +13885,21 @@
         <v>82</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>104</v>
+        <v>271</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>105</v>
+        <v>352</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>106</v>
+        <v>353</v>
       </c>
       <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
       </c>
@@ -13741,7 +13947,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13753,10 +13959,10 @@
         <v>82</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>108</v>
+        <v>356</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>82</v>
@@ -13765,7 +13971,7 @@
         <v>82</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>82</v>
+        <v>357</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -13773,14 +13979,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13799,18 +14005,20 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>111</v>
+        <v>359</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>112</v>
+        <v>646</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>113</v>
+        <v>647</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O96" s="2"/>
+        <v>648</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
@@ -13846,19 +14054,19 @@
         <v>82</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>118</v>
+        <v>645</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13870,19 +14078,19 @@
         <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK96" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL96" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AL96" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>82</v>
+        <v>649</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -13890,14 +14098,12 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="C97" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
         <v>82</v>
       </c>
@@ -13909,7 +14115,7 @@
         <v>90</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>82</v>
@@ -13918,13 +14124,13 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>416</v>
+        <v>104</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>417</v>
+        <v>105</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>418</v>
+        <v>106</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13975,22 +14181,22 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>82</v>
@@ -14007,46 +14213,44 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>631</v>
+        <v>651</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>631</v>
+        <v>651</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>420</v>
+        <v>112</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>421</v>
+        <v>113</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>82</v>
       </c>
@@ -14058,7 +14262,7 @@
         <v>82</v>
       </c>
       <c r="T98" t="s" s="2">
-        <v>424</v>
+        <v>82</v>
       </c>
       <c r="U98" t="s" s="2">
         <v>82</v>
@@ -14070,46 +14274,46 @@
         <v>82</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>238</v>
+        <v>82</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>425</v>
+        <v>82</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>426</v>
+        <v>82</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AD98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>427</v>
+        <v>118</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>313</v>
+        <v>108</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>82</v>
@@ -14118,7 +14322,7 @@
         <v>82</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>428</v>
+        <v>82</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14126,10 +14330,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14143,7 +14347,7 @@
         <v>90</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>82</v>
@@ -14155,14 +14359,12 @@
         <v>166</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>430</v>
+        <v>653</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14175,7 +14377,7 @@
         <v>82</v>
       </c>
       <c r="T99" t="s" s="2">
-        <v>433</v>
+        <v>82</v>
       </c>
       <c r="U99" t="s" s="2">
         <v>82</v>
@@ -14190,10 +14392,10 @@
         <v>238</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>434</v>
+        <v>655</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>435</v>
+        <v>656</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>82</v>
@@ -14211,7 +14413,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>436</v>
+        <v>657</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14220,13 +14422,13 @@
         <v>90</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>82</v>
+        <v>658</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>313</v>
+        <v>659</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>82</v>
@@ -14235,7 +14437,7 @@
         <v>82</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>437</v>
+        <v>660</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14243,10 +14445,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14260,7 +14462,7 @@
         <v>90</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>82</v>
@@ -14272,16 +14474,16 @@
         <v>104</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>439</v>
+        <v>662</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>440</v>
+        <v>663</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>441</v>
+        <v>664</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>319</v>
+        <v>665</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14294,7 +14496,7 @@
         <v>82</v>
       </c>
       <c r="T100" t="s" s="2">
-        <v>442</v>
+        <v>82</v>
       </c>
       <c r="U100" t="s" s="2">
         <v>82</v>
@@ -14330,7 +14532,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>443</v>
+        <v>666</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14345,7 +14547,7 @@
         <v>102</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>321</v>
+        <v>667</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>82</v>
@@ -14354,7 +14556,7 @@
         <v>82</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>444</v>
+        <v>668</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14362,10 +14564,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>634</v>
+        <v>669</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>634</v>
+        <v>669</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14376,28 +14578,32 @@
         <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I101" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="J101" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>635</v>
+        <v>670</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
+        <v>671</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>673</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
       </c>
@@ -14409,7 +14615,7 @@
         <v>82</v>
       </c>
       <c r="T101" t="s" s="2">
-        <v>448</v>
+        <v>82</v>
       </c>
       <c r="U101" t="s" s="2">
         <v>82</v>
@@ -14421,13 +14627,13 @@
         <v>82</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>82</v>
+        <v>238</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>82</v>
+        <v>674</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>82</v>
+        <v>675</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>82</v>
@@ -14445,13 +14651,13 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>449</v>
+        <v>676</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>82</v>
@@ -14460,7 +14666,7 @@
         <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>450</v>
+        <v>313</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>82</v>
@@ -14469,7 +14675,7 @@
         <v>82</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>451</v>
+        <v>677</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
@@ -14477,14 +14683,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>636</v>
+        <v>678</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>636</v>
+        <v>678</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>453</v>
+        <v>82</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14503,15 +14709,17 @@
         <v>91</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>104</v>
+        <v>679</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>637</v>
+        <v>680</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>681</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>682</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14524,7 +14732,7 @@
         <v>82</v>
       </c>
       <c r="T102" t="s" s="2">
-        <v>456</v>
+        <v>82</v>
       </c>
       <c r="U102" t="s" s="2">
         <v>82</v>
@@ -14560,7 +14768,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>457</v>
+        <v>683</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14575,7 +14783,7 @@
         <v>102</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>458</v>
+        <v>108</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>82</v>
@@ -14584,7 +14792,7 @@
         <v>82</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>459</v>
+        <v>108</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14592,14 +14800,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>638</v>
+        <v>684</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>638</v>
+        <v>684</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14618,17 +14826,15 @@
         <v>91</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>104</v>
+        <v>271</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>639</v>
+        <v>685</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>686</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14641,7 +14847,7 @@
         <v>82</v>
       </c>
       <c r="T103" t="s" s="2">
-        <v>465</v>
+        <v>82</v>
       </c>
       <c r="U103" t="s" s="2">
         <v>82</v>
@@ -14653,11 +14859,13 @@
         <v>82</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="Y103" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z103" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>82</v>
@@ -14675,7 +14883,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>467</v>
+        <v>687</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14690,7 +14898,7 @@
         <v>102</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>468</v>
+        <v>356</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>82</v>
@@ -14699,7 +14907,7 @@
         <v>82</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>469</v>
+        <v>189</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14707,14 +14915,14 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>641</v>
+        <v>688</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>641</v>
+        <v>688</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>471</v>
+        <v>82</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14730,19 +14938,21 @@
         <v>82</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>104</v>
+        <v>404</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>642</v>
+        <v>689</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>473</v>
+        <v>690</v>
       </c>
       <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>691</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
       </c>
@@ -14766,11 +14976,13 @@
         <v>82</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="Y104" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z104" t="s" s="2">
-        <v>474</v>
+        <v>82</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>82</v>
@@ -14788,7 +15000,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>475</v>
+        <v>688</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14803,16 +15015,16 @@
         <v>102</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>476</v>
+        <v>409</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>477</v>
+        <v>692</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -14820,14 +15032,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>643</v>
+        <v>693</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>643</v>
+        <v>693</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>479</v>
+        <v>82</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14843,16 +15055,16 @@
         <v>82</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>104</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>480</v>
+        <v>105</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>481</v>
+        <v>106</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14867,7 +15079,7 @@
         <v>82</v>
       </c>
       <c r="T105" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
       <c r="U105" t="s" s="2">
         <v>82</v>
@@ -14903,7 +15115,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>483</v>
+        <v>107</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -14915,10 +15127,10 @@
         <v>82</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>484</v>
+        <v>108</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>82</v>
@@ -14927,7 +15139,7 @@
         <v>82</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>485</v>
+        <v>82</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -14935,21 +15147,21 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>644</v>
+        <v>694</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>644</v>
+        <v>694</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>82</v>
@@ -14958,19 +15170,19 @@
         <v>82</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>487</v>
+        <v>112</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>488</v>
+        <v>113</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>489</v>
+        <v>114</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -15008,34 +15220,34 @@
         <v>82</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AC106" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AD106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>490</v>
+        <v>118</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>491</v>
+        <v>108</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>82</v>
@@ -15044,7 +15256,7 @@
         <v>82</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>492</v>
+        <v>82</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
@@ -15052,12 +15264,14 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>645</v>
+        <v>695</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="C107" s="2"/>
+        <v>694</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="D107" t="s" s="2">
         <v>82</v>
       </c>
@@ -15069,27 +15283,25 @@
         <v>90</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>271</v>
+        <v>416</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>494</v>
+        <v>417</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>495</v>
+        <v>418</v>
       </c>
       <c r="N107" s="2"/>
-      <c r="O107" t="s" s="2">
-        <v>496</v>
-      </c>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>82</v>
       </c>
@@ -15101,7 +15313,7 @@
         <v>82</v>
       </c>
       <c r="T107" t="s" s="2">
-        <v>497</v>
+        <v>82</v>
       </c>
       <c r="U107" t="s" s="2">
         <v>82</v>
@@ -15137,22 +15349,22 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>498</v>
+        <v>118</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>356</v>
+        <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>82</v>
@@ -15161,7 +15373,7 @@
         <v>82</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>499</v>
+        <v>82</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15169,10 +15381,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>646</v>
+        <v>696</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>646</v>
+        <v>696</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15183,29 +15395,31 @@
         <v>80</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>166</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>647</v>
+        <v>420</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="O108" t="s" s="2">
-        <v>649</v>
+        <v>423</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
@@ -15218,7 +15432,7 @@
         <v>82</v>
       </c>
       <c r="T108" t="s" s="2">
-        <v>82</v>
+        <v>424</v>
       </c>
       <c r="U108" t="s" s="2">
         <v>82</v>
@@ -15233,10 +15447,10 @@
         <v>238</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>650</v>
+        <v>425</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>651</v>
+        <v>426</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>82</v>
@@ -15254,7 +15468,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>646</v>
+        <v>427</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15269,16 +15483,16 @@
         <v>102</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>373</v>
+        <v>313</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>652</v>
+        <v>428</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -15286,10 +15500,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>653</v>
+        <v>697</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>653</v>
+        <v>697</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15309,21 +15523,21 @@
         <v>82</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>278</v>
+        <v>166</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>654</v>
+        <v>430</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="N109" s="2"/>
-      <c r="O109" t="s" s="2">
-        <v>656</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>82</v>
       </c>
@@ -15335,7 +15549,7 @@
         <v>82</v>
       </c>
       <c r="T109" t="s" s="2">
-        <v>82</v>
+        <v>433</v>
       </c>
       <c r="U109" t="s" s="2">
         <v>82</v>
@@ -15347,13 +15561,13 @@
         <v>82</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>82</v>
+        <v>238</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>82</v>
+        <v>434</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>82</v>
+        <v>435</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>82</v>
@@ -15371,7 +15585,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>653</v>
+        <v>436</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15380,22 +15594,22 @@
         <v>90</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>657</v>
+        <v>82</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>658</v>
+        <v>313</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>659</v>
+        <v>437</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15403,10 +15617,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>660</v>
+        <v>698</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>660</v>
+        <v>698</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15426,19 +15640,23 @@
         <v>82</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>271</v>
+        <v>104</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>661</v>
+        <v>439</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
       </c>
@@ -15450,7 +15668,7 @@
         <v>82</v>
       </c>
       <c r="T110" t="s" s="2">
-        <v>82</v>
+        <v>442</v>
       </c>
       <c r="U110" t="s" s="2">
         <v>82</v>
@@ -15486,7 +15704,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>660</v>
+        <v>443</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15501,16 +15719,16 @@
         <v>102</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>663</v>
+        <v>321</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>82</v>
+        <v>444</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15518,10 +15736,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>664</v>
+        <v>699</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>664</v>
+        <v>699</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15532,32 +15750,28 @@
         <v>80</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>526</v>
+        <v>104</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>665</v>
+        <v>700</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>668</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>82</v>
       </c>
@@ -15569,7 +15783,7 @@
         <v>82</v>
       </c>
       <c r="T111" t="s" s="2">
-        <v>82</v>
+        <v>448</v>
       </c>
       <c r="U111" t="s" s="2">
         <v>82</v>
@@ -15605,7 +15819,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>664</v>
+        <v>449</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15620,16 +15834,16 @@
         <v>102</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>669</v>
+        <v>450</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>670</v>
+        <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>82</v>
+        <v>451</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -15637,14 +15851,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>82</v>
+        <v>453</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15660,16 +15874,16 @@
         <v>82</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K112" t="s" s="2">
         <v>104</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>105</v>
+        <v>702</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>106</v>
+        <v>455</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15684,7 +15898,7 @@
         <v>82</v>
       </c>
       <c r="T112" t="s" s="2">
-        <v>82</v>
+        <v>456</v>
       </c>
       <c r="U112" t="s" s="2">
         <v>82</v>
@@ -15720,7 +15934,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>107</v>
+        <v>457</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15732,10 +15946,10 @@
         <v>82</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>108</v>
+        <v>458</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>82</v>
@@ -15744,7 +15958,7 @@
         <v>82</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>82</v>
+        <v>459</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -15752,21 +15966,21 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>672</v>
+        <v>703</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>672</v>
+        <v>703</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>110</v>
+        <v>461</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>82</v>
@@ -15775,19 +15989,19 @@
         <v>82</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>112</v>
+        <v>704</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>113</v>
+        <v>705</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>114</v>
+        <v>464</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -15801,7 +16015,7 @@
         <v>82</v>
       </c>
       <c r="T113" t="s" s="2">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="U113" t="s" s="2">
         <v>82</v>
@@ -15813,13 +16027,11 @@
         <v>82</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="Y113" s="2"/>
       <c r="Z113" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>82</v>
@@ -15837,22 +16049,22 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>118</v>
+        <v>467</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>108</v>
+        <v>468</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>82</v>
@@ -15861,7 +16073,7 @@
         <v>82</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>82</v>
+        <v>469</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
@@ -15869,46 +16081,42 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>673</v>
+        <v>706</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>673</v>
+        <v>706</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>674</v>
+        <v>471</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J114" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>675</v>
+        <v>707</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>677</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>82</v>
       </c>
@@ -15932,13 +16140,11 @@
         <v>82</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="Y114" s="2"/>
       <c r="Z114" t="s" s="2">
-        <v>82</v>
+        <v>474</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>82</v>
@@ -15956,22 +16162,22 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>536</v>
+        <v>475</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>189</v>
+        <v>476</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>82</v>
@@ -15980,7 +16186,7 @@
         <v>82</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>82</v>
+        <v>477</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -15988,18 +16194,18 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>678</v>
+        <v>708</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>678</v>
+        <v>708</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>82</v>
+        <v>479</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>90</v>
@@ -16011,23 +16217,19 @@
         <v>82</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>244</v>
+        <v>104</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>679</v>
+        <v>480</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>682</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>82</v>
       </c>
@@ -16039,7 +16241,7 @@
         <v>82</v>
       </c>
       <c r="T115" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
       <c r="U115" t="s" s="2">
         <v>82</v>
@@ -16051,11 +16253,13 @@
         <v>82</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="Y115" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z115" t="s" s="2">
-        <v>683</v>
+        <v>82</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>82</v>
@@ -16073,10 +16277,10 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>678</v>
+        <v>483</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>90</v>
@@ -16088,16 +16292,16 @@
         <v>102</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>684</v>
+        <v>484</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>685</v>
+        <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>686</v>
+        <v>485</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16105,10 +16309,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>687</v>
+        <v>709</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>687</v>
+        <v>709</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16128,23 +16332,21 @@
         <v>82</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>286</v>
+        <v>104</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>688</v>
+        <v>487</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>689</v>
+        <v>488</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>691</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
         <v>82</v>
       </c>
@@ -16192,7 +16394,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>687</v>
+        <v>490</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16207,16 +16409,16 @@
         <v>102</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>692</v>
+        <v>491</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>693</v>
+        <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>694</v>
+        <v>492</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16224,21 +16426,21 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>696</v>
+        <v>82</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>82</v>
@@ -16247,21 +16449,21 @@
         <v>82</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>697</v>
+        <v>271</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>698</v>
+        <v>494</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="O117" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
       </c>
@@ -16273,7 +16475,7 @@
         <v>82</v>
       </c>
       <c r="T117" t="s" s="2">
-        <v>82</v>
+        <v>497</v>
       </c>
       <c r="U117" t="s" s="2">
         <v>82</v>
@@ -16309,13 +16511,13 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>695</v>
+        <v>498</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>82</v>
@@ -16324,16 +16526,16 @@
         <v>102</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>701</v>
+        <v>356</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>702</v>
+        <v>499</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
@@ -16341,10 +16543,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16364,22 +16566,20 @@
         <v>82</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>278</v>
+        <v>166</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>706</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16404,13 +16604,13 @@
         <v>82</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>82</v>
+        <v>238</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>82</v>
+        <v>715</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>82</v>
+        <v>716</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>82</v>
@@ -16428,7 +16628,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16443,16 +16643,16 @@
         <v>102</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>658</v>
+        <v>373</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>708</v>
+        <v>108</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>82</v>
+        <v>717</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
@@ -16460,10 +16660,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16474,31 +16674,29 @@
         <v>80</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>526</v>
+        <v>278</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>712</v>
-      </c>
+        <v>720</v>
+      </c>
+      <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -16547,22 +16745,22 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>82</v>
+        <v>722</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>108</v>
@@ -16571,7 +16769,7 @@
         <v>82</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>82</v>
+        <v>724</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>82</v>
@@ -16579,10 +16777,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16605,13 +16803,13 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>104</v>
+        <v>271</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>105</v>
+        <v>726</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>106</v>
+        <v>727</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -16662,7 +16860,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>107</v>
+        <v>725</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -16674,13 +16872,13 @@
         <v>82</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK120" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="AL120" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>82</v>
@@ -16694,14 +16892,14 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>716</v>
+        <v>729</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>716</v>
+        <v>729</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16720,18 +16918,20 @@
         <v>82</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>111</v>
+        <v>591</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>112</v>
+        <v>730</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>113</v>
+        <v>731</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O121" s="2"/>
+        <v>732</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>733</v>
+      </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
       </c>
@@ -16779,7 +16979,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>118</v>
+        <v>729</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -16791,13 +16991,13 @@
         <v>82</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>108</v>
+        <v>734</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>82</v>
+        <v>735</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>82</v>
@@ -16811,10 +17011,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>717</v>
+        <v>736</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>717</v>
+        <v>736</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16825,25 +17025,25 @@
         <v>80</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>191</v>
+        <v>105</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -16894,22 +17094,22 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>536</v>
+        <v>107</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>82</v>
@@ -16926,21 +17126,21 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>82</v>
@@ -16949,19 +17149,19 @@
         <v>82</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>719</v>
+        <v>111</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>720</v>
+        <v>112</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>721</v>
+        <v>113</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>722</v>
+        <v>114</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -17011,31 +17211,31 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>718</v>
+        <v>118</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>723</v>
+        <v>82</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -17043,42 +17243,46 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>724</v>
+        <v>738</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>724</v>
+        <v>738</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>82</v>
+        <v>739</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J124" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>726</v>
-      </c>
-      <c r="N124" s="2"/>
-      <c r="O124" s="2"/>
+        <v>741</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O124" t="s" s="2">
+        <v>742</v>
+      </c>
       <c r="P124" t="s" s="2">
         <v>82</v>
       </c>
@@ -17102,62 +17306,1232 @@
         <v>82</v>
       </c>
       <c r="X124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO124" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="125" hidden="true">
+      <c r="A125" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="P125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q125" s="2"/>
+      <c r="R125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="Y125" s="2"/>
+      <c r="Z125" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="AO125" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="126" hidden="true">
+      <c r="A126" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="P126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q126" s="2"/>
+      <c r="R126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="AO126" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="127" hidden="true">
+      <c r="A127" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="O127" s="2"/>
+      <c r="P127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q127" s="2"/>
+      <c r="R127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="AO127" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="128" hidden="true">
+      <c r="A128" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="P128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q128" s="2"/>
+      <c r="R128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO128" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="129" hidden="true">
+      <c r="A129" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="P129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q129" s="2"/>
+      <c r="R129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO129" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="130" hidden="true">
+      <c r="A130" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q130" s="2"/>
+      <c r="R130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO130" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="131" hidden="true">
+      <c r="A131" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O131" s="2"/>
+      <c r="P131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q131" s="2"/>
+      <c r="R131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AL131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO131" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="132" hidden="true">
+      <c r="A132" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q132" s="2"/>
+      <c r="R132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF132" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO132" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="133" hidden="true">
+      <c r="A133" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E133" s="2"/>
+      <c r="F133" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="O133" s="2"/>
+      <c r="P133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q133" s="2"/>
+      <c r="R133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK133" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AL133" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AM133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN133" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="AO133" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="134" hidden="true">
+      <c r="A134" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E134" s="2"/>
+      <c r="F134" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
+      <c r="P134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q134" s="2"/>
+      <c r="R134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X134" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="Y124" t="s" s="2">
-        <v>726</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>727</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="AG124" t="s" s="2">
+      <c r="Y134" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="AG134" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AH124" t="s" s="2">
+      <c r="AH134" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AI124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
+      <c r="AI134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AK124" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="AL124" t="s" s="2">
+      <c r="AK134" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="AL134" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AM124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO124" t="s" s="2">
+      <c r="AM134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO134" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO124">
+  <autoFilter ref="A1:AO134">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17167,7 +18541,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI123">
+  <conditionalFormatting sqref="A2:AI133">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-NgImmPatient.xlsx
+++ b/StructureDefinition-NgImmPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-03T02:35:31+01:00</t>
+    <t>2025-08-03T02:50:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
